--- a/exels/Mobs.xlsx
+++ b/exels/Mobs.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>size</t>
   </si>
@@ -39,10 +36,79 @@
     <t>dmg</t>
   </si>
   <si>
-    <t>Images\\Def_mob_revert.png</t>
-  </si>
-  <si>
-    <t>Images\\Def_mob.png</t>
+    <t>Bat_1</t>
+  </si>
+  <si>
+    <t>Bat_2</t>
+  </si>
+  <si>
+    <t>Zombie_1</t>
+  </si>
+  <si>
+    <t>Skeleton_1</t>
+  </si>
+  <si>
+    <t>Zombie_2</t>
+  </si>
+  <si>
+    <t>Zombie_3</t>
+  </si>
+  <si>
+    <t>Skeleton_2</t>
+  </si>
+  <si>
+    <t>Skeleton_3</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Bat_1.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Bat_2.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Zombie_1.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Zombie_2.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Zombie_3.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Skeleton_1.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Skeleton_2.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Skeleton_3.png</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Bat_1_revert.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Bat_2_revert.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Zombie_1_revert.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Zombie_2_revert.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Zombie_3_revert.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Skeleton_1_revert.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Skeleton_2_revert.png</t>
+  </si>
+  <si>
+    <t>Images\\Mobs\\Skeleton_3_revert.png</t>
   </si>
 </sst>
 </file>
@@ -381,66 +447,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -452,197 +519,151 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4">
         <v>50</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D4">
         <v>15</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
         <v>50</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>50</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>70</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
